--- a/아기상어/아기상어_2021-08-12.xlsx
+++ b/아기상어/아기상어_2021-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>키티살앙</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>DDOLB</t>
-  </si>
-  <si>
-    <t>미트</t>
   </si>
   <si>
     <t>주르비</t>
@@ -653,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,11 +1126,6 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
